--- a/results/mp/tinybert/dilemma/confidence/42/stop-words-topk-masking-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/42/stop-words-topk-masking-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,34 +40,34 @@
     <t>name</t>
   </si>
   <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
     <t>uncomfortable</t>
   </si>
   <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
     <t>fucking</t>
   </si>
   <si>
     <t>dangerous</t>
   </si>
   <si>
-    <t>wrong</t>
+    <t>addicted</t>
   </si>
   <si>
     <t>hate</t>
   </si>
   <si>
-    <t>addicted</t>
+    <t>crazy</t>
   </si>
   <si>
     <t>shit</t>
@@ -76,27 +76,18 @@
     <t>scary</t>
   </si>
   <si>
+    <t>dark</t>
+  </si>
+  <si>
     <t>behind</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
     <t>false</t>
   </si>
   <si>
     <t>bad</t>
   </si>
   <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
     <t>fake</t>
   </si>
   <si>
@@ -130,18 +121,15 @@
     <t>important</t>
   </si>
   <si>
-    <t>love</t>
+    <t>first</t>
+  </si>
+  <si>
+    <t>wow</t>
   </si>
   <si>
     <t>worth</t>
   </si>
   <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
     <t>new</t>
   </si>
   <si>
@@ -151,7 +139,7 @@
     <t>media</t>
   </si>
   <si>
-    <t>’</t>
+    <t>netflix</t>
   </si>
   <si>
     <t>…</t>
@@ -515,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -523,10 +511,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -587,10 +575,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -605,7 +593,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -634,13 +622,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9545454545454546</v>
+        <v>0.9807692307692307</v>
       </c>
       <c r="C4">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="D4">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -652,10 +640,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K4">
         <v>0.9</v>
@@ -684,13 +672,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9326923076923077</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="C5">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="D5">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -702,10 +690,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K5">
         <v>0.86</v>
@@ -734,13 +722,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9230769230769231</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C6">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -752,10 +740,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K6">
         <v>0.7192982456140351</v>
@@ -784,13 +772,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C7">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D7">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -802,10 +790,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K7">
         <v>0.6896551724137931</v>
@@ -855,16 +843,16 @@
         <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K8">
-        <v>0.6666666666666666</v>
+        <v>0.68</v>
       </c>
       <c r="L8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -876,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -905,7 +893,7 @@
         <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K9">
         <v>0.631578947368421</v>
@@ -934,37 +922,37 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7647058823529411</v>
+        <v>0.675</v>
       </c>
       <c r="C10">
+        <v>27</v>
+      </c>
+      <c r="D10">
+        <v>27</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>13</v>
       </c>
-      <c r="D10">
-        <v>13</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>4</v>
-      </c>
       <c r="J10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10">
+        <v>0.6166666666666667</v>
+      </c>
+      <c r="L10">
         <v>37</v>
       </c>
-      <c r="K10">
-        <v>0.6</v>
-      </c>
-      <c r="L10">
-        <v>36</v>
-      </c>
       <c r="M10">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -976,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1005,16 +993,16 @@
         <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K11">
-        <v>0.5555555555555556</v>
+        <v>0.4242424242424243</v>
       </c>
       <c r="L11">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M11">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1026,7 +1014,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1034,13 +1022,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.625</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C12">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D12">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1055,16 +1043,16 @@
         <v>15</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K12">
-        <v>0.4444444444444444</v>
+        <v>0.3958333333333333</v>
       </c>
       <c r="L12">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M12">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1076,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1084,13 +1072,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5957446808510638</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="C13">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D13">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1102,19 +1090,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K13">
-        <v>0.4242424242424243</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="L13">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M13">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1126,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1134,13 +1122,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5942028985507246</v>
+        <v>0.5434782608695652</v>
       </c>
       <c r="C14">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D14">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1152,19 +1140,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K14">
-        <v>0.3958333333333333</v>
+        <v>0.2542372881355932</v>
       </c>
       <c r="L14">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M14">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1176,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>29</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1184,7 +1172,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5384615384615384</v>
+        <v>0.5</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -1202,19 +1190,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K15">
-        <v>0.3050847457627119</v>
+        <v>0.2340619307832423</v>
       </c>
       <c r="L15">
-        <v>18</v>
+        <v>257</v>
       </c>
       <c r="M15">
-        <v>18</v>
+        <v>257</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1226,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>41</v>
+        <v>841</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1234,13 +1222,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5217391304347826</v>
+        <v>0.5</v>
       </c>
       <c r="C16">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D16">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1252,19 +1240,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K16">
-        <v>0.2358834244080146</v>
+        <v>0.02710843373493976</v>
       </c>
       <c r="L16">
-        <v>259</v>
+        <v>18</v>
       </c>
       <c r="M16">
-        <v>259</v>
+        <v>18</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1276,7 +1264,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>839</v>
+        <v>646</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1284,13 +1272,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5142857142857142</v>
+        <v>0.5</v>
       </c>
       <c r="C17">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D17">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1302,19 +1290,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K17">
-        <v>0.0286144578313253</v>
+        <v>0.02592592592592593</v>
       </c>
       <c r="L17">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="M17">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1326,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>645</v>
+        <v>526</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1334,13 +1322,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="C18">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D18">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1352,19 +1340,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K18">
-        <v>0.01792573623559539</v>
+        <v>0.01440092165898618</v>
       </c>
       <c r="L18">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="M18">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1376,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>767</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1384,13 +1372,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4358974358974359</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C19">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D19">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1402,31 +1390,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>22</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K19">
-        <v>0.01497695852534562</v>
-      </c>
-      <c r="L19">
-        <v>26</v>
-      </c>
-      <c r="M19">
-        <v>26</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>1710</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1434,7 +1398,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4285714285714285</v>
+        <v>0.04013377926421405</v>
       </c>
       <c r="C20">
         <v>12</v>
@@ -1452,85 +1416,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="C21">
-        <v>12</v>
-      </c>
-      <c r="D21">
-        <v>12</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22">
-        <v>0.1794871794871795</v>
-      </c>
-      <c r="C22">
-        <v>14</v>
-      </c>
-      <c r="D22">
-        <v>14</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23">
-        <v>0.0505050505050505</v>
-      </c>
-      <c r="C23">
-        <v>15</v>
-      </c>
-      <c r="D23">
-        <v>17</v>
-      </c>
-      <c r="E23">
-        <v>0.12</v>
-      </c>
-      <c r="F23">
-        <v>0.88</v>
-      </c>
-      <c r="G23" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
